--- a/src/main/webapp/static/lawrecord/instrument_file/文书总结20200408V1.0.xlsx
+++ b/src/main/webapp/static/lawrecord/instrument_file/文书总结20200408V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="整体对照表" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <t>1,2,20,</t>
   </si>
   <si>
-    <t>1,2,20</t>
+    <t>1,2,5,20</t>
   </si>
   <si>
     <r>
@@ -216,6 +216,9 @@
     <t>1,4,21</t>
   </si>
   <si>
+    <t>1,4,5,21</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -423,9 +426,6 @@
     <t>1,5,21</t>
   </si>
   <si>
-    <t>1,4,5,21</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -550,9 +550,6 @@
     <t>13案件处理意见书_法人</t>
   </si>
   <si>
-    <t>1,2,5,20</t>
-  </si>
-  <si>
     <t>13案件处理意见书_法人_安</t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t>14行政处罚事先告知书_自然人</t>
+  </si>
+  <si>
+    <t>1,2,20</t>
   </si>
   <si>
     <t>14行政处罚事先告知书_自然人_安</t>
@@ -1802,12 +1802,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,21 +1833,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1882,9 +1869,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1896,8 +1937,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1912,31 +1954,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1948,33 +1969,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1992,29 +1988,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2077,7 +2050,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2089,7 +2128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,7 +2140,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,73 +2188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,7 +2200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,43 +2212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2305,26 +2278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2356,6 +2309,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2374,7 +2362,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2387,31 +2375,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2420,138 +2393,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2586,42 +2559,35 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" quotePrefix="1"/>
   </cellXfs>
@@ -2955,10 +2921,10 @@
   <sheetPr/>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2986,13 +2952,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3012,13 +2978,13 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3038,13 +3004,13 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3064,13 +3030,13 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3081,7 +3047,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="21">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -3090,13 +3056,13 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3116,19 +3082,19 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>27</v>
+      <c r="H6" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:8">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3140,21 +3106,21 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>30</v>
+      <c r="H7" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3168,19 +3134,19 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>32</v>
+      <c r="H8" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:8">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3191,19 +3157,19 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>35</v>
+      <c r="H9" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:8">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3215,21 +3181,21 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>38</v>
+      <c r="H10" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:9">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3241,18 +3207,18 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -3268,10 +3234,10 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -3290,13 +3256,13 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3316,10 +3282,10 @@
       <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3339,7 +3305,7 @@
       <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>26</v>
       </c>
       <c r="G15" t="s">
@@ -3362,10 +3328,10 @@
       <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3385,14 +3351,14 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
@@ -3407,13 +3373,13 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>34</v>
+      <c r="F18" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
@@ -3428,8 +3394,8 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>34</v>
+      <c r="F19" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -3451,10 +3417,10 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3474,10 +3440,10 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3497,10 +3463,10 @@
       <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3517,19 +3483,19 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="27" t="s">
+      <c r="E23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3541,18 +3507,18 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3564,18 +3530,18 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3587,41 +3553,41 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="28" t="s">
+      <c r="B27" s="25">
+        <v>1</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="28">
-        <v>1</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="28" t="s">
+      <c r="F27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3633,36 +3599,36 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="25">
+        <v>1</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="27" t="s">
         <v>77</v>
-      </c>
-      <c r="B29" s="28">
-        <v>1</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3679,12 +3645,12 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3704,10 +3670,10 @@
       <c r="E31" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3727,10 +3693,10 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3747,8 +3713,8 @@
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>34</v>
+      <c r="F33" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -3767,10 +3733,10 @@
       <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3784,16 +3750,16 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="21">
         <v>1.2</v>
       </c>
       <c r="E35" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="31" t="s">
+      <c r="F35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3810,8 +3776,8 @@
       <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>34</v>
+      <c r="F36" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
@@ -3833,7 +3799,7 @@
       <c r="E37" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G37" t="s">
@@ -3856,7 +3822,7 @@
       <c r="E38" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G38" t="s">
@@ -3879,10 +3845,10 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3899,8 +3865,8 @@
       <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>34</v>
+      <c r="F40" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
@@ -3922,7 +3888,7 @@
       <c r="E41" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G41" t="s">
@@ -3945,7 +3911,7 @@
       <c r="E42" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G42" t="s">
@@ -3968,7 +3934,7 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
@@ -3991,7 +3957,7 @@
       <c r="E44" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G44" t="s">
@@ -4014,10 +3980,10 @@
       <c r="E45" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4037,8 +4003,8 @@
       <c r="E46" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>37</v>
+      <c r="F46" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
@@ -4060,8 +4026,8 @@
       <c r="E47" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>40</v>
+      <c r="F47" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -4083,8 +4049,8 @@
       <c r="E48" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>37</v>
+      <c r="F48" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -4106,8 +4072,8 @@
       <c r="E49" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>40</v>
+      <c r="F49" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -4129,7 +4095,7 @@
       <c r="E50" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="17" t="s">
         <v>112</v>
       </c>
       <c r="G50" t="s">
@@ -4152,7 +4118,7 @@
       <c r="E51" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="17" t="s">
         <v>114</v>
       </c>
       <c r="G51" t="s">
@@ -4175,7 +4141,7 @@
       <c r="E52" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="17" t="s">
         <v>116</v>
       </c>
       <c r="G52" t="s">
@@ -4198,7 +4164,7 @@
       <c r="E53" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="17" t="s">
         <v>114</v>
       </c>
       <c r="G53" t="s">
@@ -4221,7 +4187,7 @@
       <c r="E54" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="17" t="s">
         <v>116</v>
       </c>
       <c r="G54" t="s">
@@ -4241,10 +4207,10 @@
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="30" t="s">
         <v>18</v>
       </c>
       <c r="G55" t="s">
@@ -4267,7 +4233,7 @@
       <c r="E56" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="17" t="s">
         <v>112</v>
       </c>
       <c r="G56" t="s">
@@ -4290,7 +4256,7 @@
       <c r="E57" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="17" t="s">
         <v>124</v>
       </c>
       <c r="G57" t="s">
@@ -4313,7 +4279,7 @@
       <c r="E58" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="17" t="s">
         <v>127</v>
       </c>
       <c r="G58" t="s">
@@ -4345,2142 +4311,2142 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="68.75" style="14" customWidth="1"/>
-    <col min="3" max="3" width="72" style="14" customWidth="1"/>
-    <col min="4" max="4" width="71.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="70.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="68.75" style="14" customWidth="1"/>
-    <col min="7" max="7" width="67.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="71.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="70.5" style="14" customWidth="1"/>
-    <col min="11" max="11" width="56.5" style="14" customWidth="1"/>
-    <col min="12" max="12" width="60.375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="68.75" style="14" customWidth="1"/>
-    <col min="14" max="14" width="67.5" style="14" customWidth="1"/>
-    <col min="15" max="15" width="75.375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="69.5" style="14" customWidth="1"/>
-    <col min="17" max="17" width="64.625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="69.625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="18.375" style="15" customWidth="1"/>
-    <col min="20" max="20" width="7.5" style="15" customWidth="1"/>
-    <col min="21" max="21" width="67.5" style="14" customWidth="1"/>
-    <col min="22" max="22" width="73.25" style="14" customWidth="1"/>
-    <col min="23" max="23" width="72" style="14" customWidth="1"/>
-    <col min="24" max="24" width="73.25" style="14" customWidth="1"/>
-    <col min="25" max="25" width="72" style="14" customWidth="1"/>
-    <col min="26" max="26" width="73.25" style="14" customWidth="1"/>
-    <col min="27" max="27" width="72" style="14" customWidth="1"/>
-    <col min="28" max="28" width="30.125" style="14" customWidth="1"/>
-    <col min="29" max="30" width="72" style="14" customWidth="1"/>
-    <col min="31" max="31" width="67.5" style="14" customWidth="1"/>
-    <col min="32" max="32" width="20.5" style="15" customWidth="1"/>
-    <col min="33" max="33" width="55.375" style="14" customWidth="1"/>
-    <col min="34" max="34" width="67.5" style="14" customWidth="1"/>
-    <col min="35" max="35" width="20.5" style="15" customWidth="1"/>
-    <col min="36" max="38" width="67.5" style="14" customWidth="1"/>
-    <col min="39" max="39" width="20.5" style="15" customWidth="1"/>
-    <col min="40" max="41" width="67.5" style="14" customWidth="1"/>
-    <col min="42" max="42" width="56.75" style="14" customWidth="1"/>
-    <col min="43" max="44" width="73.125" style="14" customWidth="1"/>
-    <col min="45" max="45" width="68.75" style="14" customWidth="1"/>
-    <col min="46" max="46" width="67.5" style="14" customWidth="1"/>
-    <col min="47" max="47" width="68.75" style="14" customWidth="1"/>
-    <col min="48" max="48" width="67.5" style="14" customWidth="1"/>
-    <col min="49" max="49" width="57.5" style="14" customWidth="1"/>
-    <col min="50" max="50" width="68.75" style="14" customWidth="1"/>
-    <col min="51" max="51" width="67.5" style="14" customWidth="1"/>
-    <col min="52" max="52" width="25.625" style="14" customWidth="1"/>
-    <col min="53" max="53" width="67.5" style="14" customWidth="1"/>
-    <col min="54" max="54" width="58.625" style="14" customWidth="1"/>
-    <col min="55" max="55" width="57.5" style="14" customWidth="1"/>
-    <col min="56" max="56" width="67.5" style="14" customWidth="1"/>
-    <col min="57" max="57" width="50.5" style="14" customWidth="1"/>
-    <col min="58" max="16384" width="9" style="14"/>
+    <col min="1" max="2" width="68.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="72" style="13" customWidth="1"/>
+    <col min="4" max="4" width="71.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="70.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="68.75" style="13" customWidth="1"/>
+    <col min="7" max="7" width="67.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="71.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="70.5" style="13" customWidth="1"/>
+    <col min="11" max="11" width="56.5" style="13" customWidth="1"/>
+    <col min="12" max="12" width="60.375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="68.75" style="13" customWidth="1"/>
+    <col min="14" max="14" width="67.5" style="13" customWidth="1"/>
+    <col min="15" max="15" width="75.375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="69.5" style="13" customWidth="1"/>
+    <col min="17" max="17" width="64.625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="69.625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="14" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="14" customWidth="1"/>
+    <col min="21" max="21" width="67.5" style="13" customWidth="1"/>
+    <col min="22" max="22" width="73.25" style="13" customWidth="1"/>
+    <col min="23" max="23" width="72" style="13" customWidth="1"/>
+    <col min="24" max="24" width="73.25" style="13" customWidth="1"/>
+    <col min="25" max="25" width="72" style="13" customWidth="1"/>
+    <col min="26" max="26" width="73.25" style="13" customWidth="1"/>
+    <col min="27" max="27" width="72" style="13" customWidth="1"/>
+    <col min="28" max="28" width="30.125" style="13" customWidth="1"/>
+    <col min="29" max="30" width="72" style="13" customWidth="1"/>
+    <col min="31" max="31" width="67.5" style="13" customWidth="1"/>
+    <col min="32" max="32" width="20.5" style="14" customWidth="1"/>
+    <col min="33" max="33" width="55.375" style="13" customWidth="1"/>
+    <col min="34" max="34" width="67.5" style="13" customWidth="1"/>
+    <col min="35" max="35" width="20.5" style="14" customWidth="1"/>
+    <col min="36" max="38" width="67.5" style="13" customWidth="1"/>
+    <col min="39" max="39" width="20.5" style="14" customWidth="1"/>
+    <col min="40" max="41" width="67.5" style="13" customWidth="1"/>
+    <col min="42" max="42" width="56.75" style="13" customWidth="1"/>
+    <col min="43" max="44" width="73.125" style="13" customWidth="1"/>
+    <col min="45" max="45" width="68.75" style="13" customWidth="1"/>
+    <col min="46" max="46" width="67.5" style="13" customWidth="1"/>
+    <col min="47" max="47" width="68.75" style="13" customWidth="1"/>
+    <col min="48" max="48" width="67.5" style="13" customWidth="1"/>
+    <col min="49" max="49" width="57.5" style="13" customWidth="1"/>
+    <col min="50" max="50" width="68.75" style="13" customWidth="1"/>
+    <col min="51" max="51" width="67.5" style="13" customWidth="1"/>
+    <col min="52" max="52" width="25.625" style="13" customWidth="1"/>
+    <col min="53" max="53" width="67.5" style="13" customWidth="1"/>
+    <col min="54" max="54" width="58.625" style="13" customWidth="1"/>
+    <col min="55" max="55" width="57.5" style="13" customWidth="1"/>
+    <col min="56" max="56" width="67.5" style="13" customWidth="1"/>
+    <col min="57" max="57" width="50.5" style="13" customWidth="1"/>
+    <col min="58" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:57">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="14" t="s">
+      <c r="F1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" s="14" t="s">
+      <c r="W1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AL1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AN1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AO1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AP1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AR1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AS1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AT1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AU1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AV1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AW1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AX1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="AY1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="BA1" s="14" t="s">
+      <c r="BA1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BB1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="BC1" s="14" t="s">
+      <c r="BC1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="BD1" s="14" t="s">
+      <c r="BD1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BE1" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:57">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AK2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AL2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AN2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AO2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AP2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AR2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AS2" s="14" t="s">
+      <c r="AS2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AT2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AU2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AV2" s="14" t="s">
+      <c r="AV2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AW2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AX2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AY2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BA2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="BB2" s="14" t="s">
+      <c r="BB2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BC2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BD2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="BE2" s="14" t="s">
+      <c r="BE2" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:57">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AA3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AC3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AD3" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AE3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AH3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AK3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AN3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AO3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AQ3" s="14" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AR3" s="14" t="s">
+      <c r="AR3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AS3" s="14" t="s">
+      <c r="AS3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AT3" s="14" t="s">
+      <c r="AT3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AU3" s="14" t="s">
+      <c r="AU3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AV3" s="14" t="s">
+      <c r="AV3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AW3" s="14" t="s">
+      <c r="AW3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AX3" s="14" t="s">
+      <c r="AX3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AY3" s="14" t="s">
+      <c r="AY3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AZ3" s="14" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="BA3" s="14" t="s">
+      <c r="BA3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="BB3" s="14" t="s">
+      <c r="BB3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BC3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BD3" s="14" t="s">
+      <c r="BD3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="BE3" s="14" t="s">
+      <c r="BE3" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:56">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AA4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AD4" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AE4" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AG4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AH4" s="14" t="s">
+      <c r="AH4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AK4" s="14" t="s">
+      <c r="AK4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AN4" s="14" t="s">
+      <c r="AN4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AO4" s="14" t="s">
+      <c r="AO4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AQ4" s="14" t="s">
+      <c r="AQ4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="AR4" s="14" t="s">
+      <c r="AR4" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="AS4" s="14" t="s">
+      <c r="AS4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AT4" s="14" t="s">
+      <c r="AT4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AU4" s="14" t="s">
+      <c r="AU4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AV4" s="14" t="s">
+      <c r="AV4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AW4" s="14" t="s">
+      <c r="AW4" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AX4" s="14" t="s">
+      <c r="AX4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AY4" s="14" t="s">
+      <c r="AY4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AZ4" s="14" t="s">
+      <c r="AZ4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="BA4" s="14" t="s">
+      <c r="BA4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BB4" s="14" t="s">
+      <c r="BB4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="BC4" s="14" t="s">
+      <c r="BC4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="BD4" s="14" t="s">
+      <c r="BD4" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:56">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="Z5" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="AA5" s="14" t="s">
+      <c r="AA5" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="AB5" s="14" t="s">
+      <c r="AB5" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AC5" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="AD5" s="14" t="s">
+      <c r="AD5" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AE5" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="AH5" s="14" t="s">
+      <c r="AH5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AJ5" s="14" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AK5" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AN5" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="AO5" s="14" t="s">
+      <c r="AO5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AQ5" s="14" t="s">
+      <c r="AQ5" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AR5" s="14" t="s">
+      <c r="AR5" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="AS5" s="14" t="s">
+      <c r="AS5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="AT5" s="14" t="s">
+      <c r="AT5" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AU5" s="14" t="s">
+      <c r="AU5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="AV5" s="14" t="s">
+      <c r="AV5" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="AW5" s="14" t="s">
+      <c r="AW5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AX5" s="14" t="s">
+      <c r="AX5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="AY5" s="14" t="s">
+      <c r="AY5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AZ5" s="14" t="s">
+      <c r="AZ5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="BA5" s="14" t="s">
+      <c r="BA5" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="BB5" s="14" t="s">
+      <c r="BB5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="BC5" s="14" t="s">
+      <c r="BC5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="BD5" s="14" t="s">
+      <c r="BD5" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:56">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="X6" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="Z6" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="AA6" s="14" t="s">
+      <c r="AA6" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AB6" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AC6" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="AD6" s="14" t="s">
+      <c r="AD6" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="AN6" s="14" t="s">
+      <c r="AN6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="AO6" s="14" t="s">
+      <c r="AO6" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="AQ6" s="14" t="s">
+      <c r="AQ6" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AR6" s="14" t="s">
+      <c r="AR6" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AS6" s="14" t="s">
+      <c r="AS6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AT6" s="14" t="s">
+      <c r="AT6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AU6" s="14" t="s">
+      <c r="AU6" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AV6" s="14" t="s">
+      <c r="AV6" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AW6" s="14" t="s">
+      <c r="AW6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AX6" s="14" t="s">
+      <c r="AX6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AY6" s="14" t="s">
+      <c r="AY6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AZ6" s="14" t="s">
+      <c r="AZ6" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BA6" s="14" t="s">
+      <c r="BA6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="BC6" s="14" t="s">
+      <c r="BC6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BD6" s="14" t="s">
+      <c r="BD6" s="13" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:56">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="Z7" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AA7" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AB7" s="14" t="s">
+      <c r="AB7" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AC7" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AD7" s="14" t="s">
+      <c r="AD7" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="AO7" s="14" t="s">
+      <c r="AO7" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="AQ7" s="14" t="s">
+      <c r="AQ7" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AR7" s="14" t="s">
+      <c r="AR7" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="AS7" s="14" t="s">
+      <c r="AS7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AU7" s="14" t="s">
+      <c r="AU7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AV7" s="14" t="s">
+      <c r="AV7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AY7" s="14" t="s">
+      <c r="AY7" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AZ7" s="14" t="s">
+      <c r="AZ7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="BA7" s="14" t="s">
+      <c r="BA7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="BD7" s="14" t="s">
+      <c r="BD7" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:56">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="W8" s="14" t="s">
+      <c r="W8" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="X8" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="Y8" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="Z8" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="AA8" s="14" t="s">
+      <c r="AA8" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="AB8" s="14" t="s">
+      <c r="AB8" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="AC8" s="14" t="s">
+      <c r="AC8" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AD8" s="14" t="s">
+      <c r="AD8" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="AR8" s="14" t="s">
+      <c r="AR8" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AU8" s="14" t="s">
+      <c r="AU8" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AY8" s="14" t="s">
+      <c r="AY8" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="BA8" s="14" t="s">
+      <c r="BA8" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="BD8" s="14" t="s">
+      <c r="BD8" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:56">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="W9" s="14" t="s">
+      <c r="W9" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="Z9" s="14" t="s">
+      <c r="Z9" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AA9" s="14" t="s">
+      <c r="AA9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AB9" s="14" t="s">
+      <c r="AB9" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="AC9" s="14" t="s">
+      <c r="AC9" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="AD9" s="14" t="s">
+      <c r="AD9" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AR9" s="14" t="s">
+      <c r="AR9" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AY9" s="14" t="s">
+      <c r="AY9" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BA9" s="14" t="s">
+      <c r="BA9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="BD9" s="14" t="s">
+      <c r="BD9" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:56">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="V10" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="W10" s="14" t="s">
+      <c r="W10" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="Z10" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="AA10" s="14" t="s">
+      <c r="AA10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AB10" s="14" t="s">
+      <c r="AB10" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AC10" s="14" t="s">
+      <c r="AC10" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AR10" s="14" t="s">
+      <c r="AR10" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="AY10" s="14" t="s">
+      <c r="AY10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="BA10" s="14" t="s">
+      <c r="BA10" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BD10" s="14" t="s">
+      <c r="BD10" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:53">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="V11" s="16" t="s">
+      <c r="V11" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="W11" s="14" t="s">
+      <c r="W11" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="X11" s="14" t="s">
+      <c r="X11" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="Z11" s="14" t="s">
+      <c r="Z11" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="AA11" s="14" t="s">
+      <c r="AA11" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="AB11" s="14" t="s">
+      <c r="AB11" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="AC11" s="14" t="s">
+      <c r="AC11" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AD11" s="14" t="s">
+      <c r="AD11" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AY11" s="14" t="s">
+      <c r="AY11" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="BA11" s="14" t="s">
+      <c r="BA11" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:53">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="W12" s="14" t="s">
+      <c r="W12" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="X12" s="14" t="s">
+      <c r="X12" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="Z12" s="14" t="s">
+      <c r="Z12" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="AA12" s="14" t="s">
+      <c r="AA12" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="AB12" s="14" t="s">
+      <c r="AB12" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="AC12" s="14" t="s">
+      <c r="AC12" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="AD12" s="14" t="s">
+      <c r="AD12" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AY12" s="14" t="s">
+      <c r="AY12" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="BA12" s="14" t="s">
+      <c r="BA12" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:53">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" s="14" t="s">
+      <c r="W13" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="X13" s="14" t="s">
+      <c r="X13" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="Y13" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="Z13" s="14" t="s">
+      <c r="Z13" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="AA13" s="14" t="s">
+      <c r="AA13" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="AB13" s="14" t="s">
+      <c r="AB13" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="AC13" s="14" t="s">
+      <c r="AC13" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="AD13" s="14" t="s">
+      <c r="AD13" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="AY13" s="14" t="s">
+      <c r="AY13" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="BA13" s="14" t="s">
+      <c r="BA13" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:53">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="W14" s="14" t="s">
+      <c r="W14" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="X14" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Y14" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="AA14" s="14" t="s">
+      <c r="AA14" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="AB14" s="14" t="s">
+      <c r="AB14" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="AC14" s="14" t="s">
+      <c r="AC14" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="AY14" s="14" t="s">
+      <c r="AY14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BA14" s="14" t="s">
+      <c r="BA14" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:53">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="W15" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Y15" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="AC15" s="14" t="s">
+      <c r="AC15" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="AY15" s="14" t="s">
+      <c r="AY15" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="BA15" s="14" t="s">
+      <c r="BA15" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="4:53">
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="W16" s="14" t="s">
+      <c r="W16" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="Y16" s="14" t="s">
+      <c r="Y16" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="BA16" s="14" t="s">
+      <c r="BA16" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="4:53">
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="W17" s="14" t="s">
+      <c r="W17" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="Y17" s="14" t="s">
+      <c r="Y17" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="BA17" s="14" t="s">
+      <c r="BA17" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:53">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="W18" s="14" t="s">
+      <c r="W18" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="Y18" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="BA18" s="14" t="s">
+      <c r="BA18" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="4:25">
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="W19" s="14" t="s">
+      <c r="W19" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="Y19" s="14" t="s">
+      <c r="Y19" s="13" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="4:25">
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="W20" s="14" t="s">
+      <c r="W20" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="Y20" s="14" t="s">
+      <c r="Y20" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="5:25">
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="W21" s="14" t="s">
+      <c r="W21" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="Y21" s="14" t="s">
+      <c r="Y21" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="5:25">
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="W22" s="14" t="s">
+      <c r="W22" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="Y22" s="14" t="s">
+      <c r="Y22" s="13" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="5:25">
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="P23" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="W23" s="14" t="s">
+      <c r="W23" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="Y23" s="14" t="s">
+      <c r="Y23" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="5:25">
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="O24" s="14" t="s">
+      <c r="O24" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="P24" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="Y24" s="14" t="s">
+      <c r="Y24" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="5:25">
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="O25" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Y25" s="14" t="s">
+      <c r="Y25" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="5:25">
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="O26" s="14" t="s">
+      <c r="O26" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="Y26" s="14" t="s">
+      <c r="Y26" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="5:16">
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="13" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="5:16">
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="O28" s="14" t="s">
+      <c r="O28" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="P28" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="5:16">
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="13" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="5:16">
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="13" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="7:16">
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="P31" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="7:16">
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="P32" s="13" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="7:16">
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="P33" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="7:16">
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="13" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="16:16">
-      <c r="P35" s="14" t="s">
+      <c r="P35" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="16:16">
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="16:16">
-      <c r="P37" s="14" t="s">
+      <c r="P37" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="16:16">
-      <c r="P38" s="14" t="s">
+      <c r="P38" s="13" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="16:16">
-      <c r="P39" s="14" t="s">
+      <c r="P39" s="13" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6795,42 +6761,42 @@
       <c r="C23" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="6" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:4">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>361</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" ht="17.25" spans="1:4">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>361</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" ht="17.25" spans="1:4">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>366</v>
       </c>
       <c r="D26" s="6"/>
